--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_25_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_25_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>347969.6782594754</v>
+        <v>275954.0205304569</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10500601.02362874</v>
+        <v>10336336.12539032</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7920270.647819594</v>
+        <v>8019629.641180362</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         <v>92.6649492891022</v>
       </c>
       <c r="E2" t="n">
-        <v>56.70400066026085</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.91528667358037</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>33.84730027516773</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="V3" t="n">
-        <v>47.77198705867351</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="W3" t="n">
         <v>92.6649492891022</v>
       </c>
       <c r="X3" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>92.6649492891022</v>
+        <v>67.27654854321852</v>
       </c>
     </row>
     <row r="4">
@@ -895,76 +895,76 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>98.74883103803279</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="V5" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="H5" t="n">
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>112.1126601249237</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>98.74883103803275</v>
       </c>
     </row>
     <row r="6">
@@ -977,16 +977,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>98.74883103803275</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>89.49227226221134</v>
+      </c>
+      <c r="F6" t="n">
         <v>112.1126601249237</v>
-      </c>
-      <c r="E6" t="n">
-        <v>112.1126601249237</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>112.1126601249237</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>9.256558775821418</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>3.625377488803587</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>3.625377488803587</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>118.246608494675</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>87.72376409031473</v>
       </c>
       <c r="G8" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.091680627731961</v>
+        <v>16.427848671795</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>86.83958259249187</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>33.49861477563018</v>
+        <v>118.246608494675</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>118.246608494675</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>144.6751566710423</v>
+        <v>118.246608494675</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>118.246608494675</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>118.246608494675</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>101.6444647650348</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>61.76616344642424</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>23.23168261818574</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>77.59326173053483</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>7.869462106716679</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>104.1516127621097</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1329,10 +1329,10 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>8.508606056834793</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>11.08421257821694</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>5.342998111412493</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>187.5255871663199</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>187.5255871663199</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>66.61026055747926</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>7.527456720693497</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.1391017539420991</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1505,16 +1505,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>187.5255871663199</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V12" t="n">
-        <v>187.5255871663199</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>187.5255871663199</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>52.21594625443444</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>160.2783998636179</v>
       </c>
     </row>
     <row r="14">
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>276.4192614075402</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>88.09081815943091</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>179.9896253540992</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>59.59863041820518</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>187.5255871663201</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V16" t="n">
-        <v>52.21594625443466</v>
+        <v>39.48192853519502</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>7.924763533987757</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>243.5875274224978</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1934,16 +1934,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>134.9994691657081</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247723</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>190.7165703189231</v>
+        <v>172.3262055194469</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>188.8434718521925</v>
+        <v>250.7831302631783</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>105.0023863360944</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>171.4771620235103</v>
       </c>
     </row>
     <row r="21">
@@ -2165,22 +2165,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>8.327434891516589</v>
       </c>
       <c r="G21" t="n">
-        <v>134.9994691657081</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T21" t="n">
-        <v>190.7165703189231</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>243.1953066492921</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>185.9158911817641</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2323,19 +2323,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>16.34825474388467</v>
+        <v>149.555738705506</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>20.95866062610959</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>87.93270968653111</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,22 +2560,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>32.97988876732234</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>57.92518451681239</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>124.4272108043269</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>94.57983363107927</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2800,19 +2800,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>251.2852794514157</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>36.34690181272143</v>
       </c>
     </row>
     <row r="30">
@@ -2961,13 +2961,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>80.4335155414707</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>102.0933563356323</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>229.7965692041375</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>121.0389903687762</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>46.6869677623119</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>203.7029035467948</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3283,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>41.35684107511847</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>22.79319361026555</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3362,7 +3362,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851092</v>
       </c>
       <c r="I36" t="n">
         <v>18.81721868247742</v>
@@ -3395,7 +3395,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>184.1110579343358</v>
       </c>
       <c r="U37" t="n">
-        <v>270.4873576255022</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>77.42639794035721</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3520,7 +3520,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>99.84252126103637</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>38.54905110173166</v>
+        <v>20.95866062610959</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>52.80938221506572</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>271.8036819298777</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3836,7 +3836,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I42" t="n">
         <v>18.81721868247742</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>53.54735467376835</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>194.7787730209283</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>15.38185492767492</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>32.97988876732369</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>20.95866062610969</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>20.95866062610959</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>370.6597971564088</v>
+        <v>288.2160725767712</v>
       </c>
       <c r="C2" t="n">
-        <v>277.0588382785278</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="D2" t="n">
-        <v>183.4578794006468</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="E2" t="n">
-        <v>126.181111056949</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F2" t="n">
-        <v>126.181111056949</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G2" t="n">
-        <v>126.181111056949</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H2" t="n">
-        <v>126.181111056949</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I2" t="n">
-        <v>32.58015217906794</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J2" t="n">
         <v>7.413195943128176</v>
@@ -4336,10 +4336,10 @@
         <v>21.18357364821451</v>
       </c>
       <c r="L2" t="n">
-        <v>75.16870670940369</v>
+        <v>75.16870670940374</v>
       </c>
       <c r="M2" t="n">
-        <v>166.9070065056149</v>
+        <v>166.9070065056148</v>
       </c>
       <c r="N2" t="n">
         <v>258.6453063018261</v>
@@ -4372,10 +4372,10 @@
         <v>370.6597971564088</v>
       </c>
       <c r="X2" t="n">
-        <v>370.6597971564088</v>
+        <v>288.2160725767712</v>
       </c>
       <c r="Y2" t="n">
-        <v>370.6597971564088</v>
+        <v>288.2160725767712</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.60238814026729</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C3" t="n">
-        <v>41.60238814026729</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D3" t="n">
-        <v>41.60238814026729</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E3" t="n">
-        <v>41.60238814026729</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F3" t="n">
-        <v>41.60238814026729</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G3" t="n">
-        <v>41.60238814026729</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H3" t="n">
-        <v>41.60238814026729</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I3" t="n">
-        <v>41.60238814026729</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J3" t="n">
         <v>7.413195943128176</v>
       </c>
       <c r="K3" t="n">
-        <v>28.29609765201163</v>
+        <v>22.11425555195332</v>
       </c>
       <c r="L3" t="n">
-        <v>102.6982772648967</v>
+        <v>96.51643516483841</v>
       </c>
       <c r="M3" t="n">
-        <v>194.4365770611079</v>
+        <v>188.2547349610496</v>
       </c>
       <c r="N3" t="n">
-        <v>226.5580308522524</v>
+        <v>279.9930347572608</v>
       </c>
       <c r="O3" t="n">
-        <v>317.2247932514005</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="P3" t="n">
         <v>370.6597971564088</v>
       </c>
       <c r="Q3" t="n">
-        <v>370.6597971564088</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="R3" t="n">
-        <v>370.6597971564088</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="S3" t="n">
-        <v>370.6597971564088</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="T3" t="n">
-        <v>370.6597971564088</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="U3" t="n">
-        <v>370.6597971564088</v>
+        <v>262.5712233385049</v>
       </c>
       <c r="V3" t="n">
-        <v>322.4052647739103</v>
+        <v>168.9702644606239</v>
       </c>
       <c r="W3" t="n">
-        <v>228.8043058960293</v>
+        <v>75.36930558274285</v>
       </c>
       <c r="X3" t="n">
-        <v>135.2033470181483</v>
+        <v>75.36930558274285</v>
       </c>
       <c r="Y3" t="n">
-        <v>41.60238814026729</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="4">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>235.4592352845873</v>
+        <v>108.7153067878048</v>
       </c>
       <c r="C5" t="n">
-        <v>235.4592352845873</v>
+        <v>108.7153067878048</v>
       </c>
       <c r="D5" t="n">
-        <v>235.4592352845873</v>
+        <v>108.7153067878048</v>
       </c>
       <c r="E5" t="n">
-        <v>235.4592352845873</v>
+        <v>108.7153067878048</v>
       </c>
       <c r="F5" t="n">
-        <v>235.4592352845873</v>
+        <v>108.7153067878048</v>
       </c>
       <c r="G5" t="n">
-        <v>122.2141240472906</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="H5" t="n">
         <v>8.969012809993897</v>
@@ -4600,19 +4600,19 @@
         <v>448.4506404996948</v>
       </c>
       <c r="U5" t="n">
-        <v>448.4506404996948</v>
+        <v>335.2055292623982</v>
       </c>
       <c r="V5" t="n">
-        <v>448.4506404996948</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="W5" t="n">
-        <v>448.4506404996948</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="X5" t="n">
-        <v>448.4506404996948</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="Y5" t="n">
-        <v>348.704346521884</v>
+        <v>108.7153067878048</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>448.4506404996948</v>
+        <v>325.8554698928816</v>
       </c>
       <c r="C6" t="n">
-        <v>348.704346521884</v>
+        <v>325.8554698928816</v>
       </c>
       <c r="D6" t="n">
+        <v>325.8554698928816</v>
+      </c>
+      <c r="E6" t="n">
         <v>235.4592352845873</v>
-      </c>
-      <c r="E6" t="n">
-        <v>122.2141240472906</v>
       </c>
       <c r="F6" t="n">
         <v>122.2141240472906</v>
@@ -4649,16 +4649,16 @@
         <v>8.969012809993897</v>
       </c>
       <c r="K6" t="n">
-        <v>36.22166818534551</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="L6" t="n">
-        <v>119.1887676792232</v>
+        <v>91.93611230387164</v>
       </c>
       <c r="M6" t="n">
-        <v>230.1803012028977</v>
+        <v>176.4394396403952</v>
       </c>
       <c r="N6" t="n">
-        <v>341.1718347265722</v>
+        <v>287.4309731640697</v>
       </c>
       <c r="O6" t="n">
         <v>387.4830745953196</v>
@@ -4667,31 +4667,31 @@
         <v>448.4506404996948</v>
       </c>
       <c r="Q6" t="n">
-        <v>448.4506404996948</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="R6" t="n">
-        <v>448.4506404996948</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="S6" t="n">
-        <v>448.4506404996948</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="T6" t="n">
-        <v>448.4506404996948</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="U6" t="n">
-        <v>448.4506404996948</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="V6" t="n">
-        <v>448.4506404996948</v>
+        <v>325.8554698928816</v>
       </c>
       <c r="W6" t="n">
-        <v>448.4506404996948</v>
+        <v>325.8554698928816</v>
       </c>
       <c r="X6" t="n">
-        <v>448.4506404996948</v>
+        <v>325.8554698928816</v>
       </c>
       <c r="Y6" t="n">
-        <v>448.4506404996948</v>
+        <v>325.8554698928816</v>
       </c>
     </row>
     <row r="7">
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="C7" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="D7" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="E7" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="F7" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="G7" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="H7" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="I7" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="J7" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="K7" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="L7" t="n">
         <v>8.969012809993897</v>
@@ -4740,37 +4740,37 @@
         <v>12.63101027343186</v>
       </c>
       <c r="O7" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="P7" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="Q7" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="R7" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="S7" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="T7" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="U7" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="V7" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="W7" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="X7" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>457.1468919688944</v>
+        <v>234.1043966157202</v>
       </c>
       <c r="C8" t="n">
-        <v>311.0103700789526</v>
+        <v>234.1043966157202</v>
       </c>
       <c r="D8" t="n">
-        <v>164.8738481890109</v>
+        <v>234.1043966157202</v>
       </c>
       <c r="E8" t="n">
-        <v>164.8738481890109</v>
+        <v>114.6633779342303</v>
       </c>
       <c r="F8" t="n">
-        <v>164.8738481890109</v>
+        <v>26.05351521674067</v>
       </c>
       <c r="G8" t="n">
-        <v>18.7373262990692</v>
+        <v>26.05351521674067</v>
       </c>
       <c r="H8" t="n">
-        <v>18.7373262990692</v>
+        <v>26.05351521674067</v>
       </c>
       <c r="I8" t="n">
-        <v>18.7373262990692</v>
+        <v>26.05351521674067</v>
       </c>
       <c r="J8" t="n">
-        <v>11.57401253368338</v>
+        <v>9.459728679574003</v>
       </c>
       <c r="K8" t="n">
-        <v>51.79022575657168</v>
+        <v>35.82337111377183</v>
       </c>
       <c r="L8" t="n">
-        <v>138.5837562783352</v>
+        <v>105.4315626440646</v>
       </c>
       <c r="M8" t="n">
-        <v>266.8277197508551</v>
+        <v>214.5535252282482</v>
       </c>
       <c r="N8" t="n">
-        <v>401.7606130061291</v>
+        <v>330.0550036293765</v>
       </c>
       <c r="O8" t="n">
-        <v>515.8386566132575</v>
+        <v>425.7845131997882</v>
       </c>
       <c r="P8" t="n">
-        <v>578.7006266841692</v>
+        <v>472.9864339787001</v>
       </c>
       <c r="Q8" t="n">
-        <v>578.7006266841692</v>
+        <v>472.9864339787001</v>
       </c>
       <c r="R8" t="n">
-        <v>490.983876590743</v>
+        <v>472.9864339787001</v>
       </c>
       <c r="S8" t="n">
-        <v>490.983876590743</v>
+        <v>472.9864339787001</v>
       </c>
       <c r="T8" t="n">
-        <v>490.983876590743</v>
+        <v>472.9864339787001</v>
       </c>
       <c r="U8" t="n">
-        <v>490.983876590743</v>
+        <v>472.9864339787001</v>
       </c>
       <c r="V8" t="n">
-        <v>490.983876590743</v>
+        <v>472.9864339787001</v>
       </c>
       <c r="W8" t="n">
-        <v>490.983876590743</v>
+        <v>472.9864339787001</v>
       </c>
       <c r="X8" t="n">
-        <v>457.1468919688944</v>
+        <v>353.5454152972102</v>
       </c>
       <c r="Y8" t="n">
-        <v>457.1468919688944</v>
+        <v>234.1043966157202</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>200.1015992302943</v>
+        <v>248.3417660425539</v>
       </c>
       <c r="C9" t="n">
-        <v>200.1015992302943</v>
+        <v>128.9007473610639</v>
       </c>
       <c r="D9" t="n">
-        <v>200.1015992302943</v>
+        <v>128.9007473610639</v>
       </c>
       <c r="E9" t="n">
-        <v>200.1015992302943</v>
+        <v>128.9007473610639</v>
       </c>
       <c r="F9" t="n">
-        <v>200.1015992302943</v>
+        <v>9.459728679574003</v>
       </c>
       <c r="G9" t="n">
-        <v>200.1015992302943</v>
+        <v>9.459728679574003</v>
       </c>
       <c r="H9" t="n">
-        <v>97.4304226999561</v>
+        <v>9.459728679574003</v>
       </c>
       <c r="I9" t="n">
-        <v>35.04035861265888</v>
+        <v>9.459728679574003</v>
       </c>
       <c r="J9" t="n">
-        <v>11.57401253368338</v>
+        <v>9.459728679574003</v>
       </c>
       <c r="K9" t="n">
-        <v>50.41925783498756</v>
+        <v>38.89613393960602</v>
       </c>
       <c r="L9" t="n">
-        <v>148.9740250987618</v>
+        <v>124.7995546449106</v>
       </c>
       <c r="M9" t="n">
-        <v>243.6629351576686</v>
+        <v>241.8636970546389</v>
       </c>
       <c r="N9" t="n">
-        <v>386.8913402620005</v>
+        <v>358.9278394643671</v>
       </c>
       <c r="O9" t="n">
-        <v>504.0242257254407</v>
+        <v>409.436471288079</v>
       </c>
       <c r="P9" t="n">
-        <v>578.7006266841692</v>
+        <v>472.9864339787001</v>
       </c>
       <c r="Q9" t="n">
-        <v>578.7006266841692</v>
+        <v>472.9864339787001</v>
       </c>
       <c r="R9" t="n">
-        <v>500.3235946331239</v>
+        <v>472.9864339787001</v>
       </c>
       <c r="S9" t="n">
-        <v>500.3235946331239</v>
+        <v>472.9864339787001</v>
       </c>
       <c r="T9" t="n">
-        <v>492.3746430101777</v>
+        <v>472.9864339787001</v>
       </c>
       <c r="U9" t="n">
-        <v>346.238121120236</v>
+        <v>472.9864339787001</v>
       </c>
       <c r="V9" t="n">
-        <v>346.238121120236</v>
+        <v>472.9864339787001</v>
       </c>
       <c r="W9" t="n">
-        <v>346.238121120236</v>
+        <v>472.9864339787001</v>
       </c>
       <c r="X9" t="n">
-        <v>346.238121120236</v>
+        <v>367.7827847240438</v>
       </c>
       <c r="Y9" t="n">
-        <v>346.238121120236</v>
+        <v>367.7827847240438</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.57401253368338</v>
+        <v>9.459728679574003</v>
       </c>
       <c r="C10" t="n">
-        <v>11.57401253368338</v>
+        <v>9.459728679574003</v>
       </c>
       <c r="D10" t="n">
-        <v>11.57401253368338</v>
+        <v>9.459728679574003</v>
       </c>
       <c r="E10" t="n">
-        <v>11.57401253368338</v>
+        <v>9.459728679574003</v>
       </c>
       <c r="F10" t="n">
-        <v>11.57401253368338</v>
+        <v>9.459728679574003</v>
       </c>
       <c r="G10" t="n">
-        <v>11.57401253368338</v>
+        <v>9.459728679574003</v>
       </c>
       <c r="H10" t="n">
-        <v>11.57401253368338</v>
+        <v>9.459728679574003</v>
       </c>
       <c r="I10" t="n">
-        <v>11.57401253368338</v>
+        <v>9.459728679574003</v>
       </c>
       <c r="J10" t="n">
-        <v>11.57401253368338</v>
+        <v>9.459728679574003</v>
       </c>
       <c r="K10" t="n">
-        <v>11.57401253368338</v>
+        <v>9.459728679574003</v>
       </c>
       <c r="L10" t="n">
-        <v>13.35570305153742</v>
+        <v>9.459728679574003</v>
       </c>
       <c r="M10" t="n">
-        <v>18.49252890534889</v>
+        <v>9.459728679574003</v>
       </c>
       <c r="N10" t="n">
-        <v>31.36473842767504</v>
+        <v>14.85669646887955</v>
       </c>
       <c r="O10" t="n">
-        <v>22.77018685511464</v>
+        <v>14.85669646887955</v>
       </c>
       <c r="P10" t="n">
-        <v>11.57401253368338</v>
+        <v>14.85669646887955</v>
       </c>
       <c r="Q10" t="n">
-        <v>11.57401253368338</v>
+        <v>14.85669646887955</v>
       </c>
       <c r="R10" t="n">
-        <v>11.57401253368338</v>
+        <v>14.85669646887955</v>
       </c>
       <c r="S10" t="n">
-        <v>11.57401253368338</v>
+        <v>14.85669646887955</v>
       </c>
       <c r="T10" t="n">
-        <v>11.57401253368338</v>
+        <v>14.85669646887955</v>
       </c>
       <c r="U10" t="n">
-        <v>11.57401253368338</v>
+        <v>14.85669646887955</v>
       </c>
       <c r="V10" t="n">
-        <v>11.57401253368338</v>
+        <v>14.85669646887955</v>
       </c>
       <c r="W10" t="n">
-        <v>11.57401253368338</v>
+        <v>14.85669646887955</v>
       </c>
       <c r="X10" t="n">
-        <v>11.57401253368338</v>
+        <v>9.459728679574003</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.57401253368338</v>
+        <v>9.459728679574003</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>750.1023486652795</v>
+        <v>1583.789775223591</v>
       </c>
       <c r="C11" t="n">
-        <v>750.1023486652795</v>
+        <v>1214.82725828318</v>
       </c>
       <c r="D11" t="n">
-        <v>583.2614020227597</v>
+        <v>1214.82725828318</v>
       </c>
       <c r="E11" t="n">
-        <v>393.841617006275</v>
+        <v>829.0390056849353</v>
       </c>
       <c r="F11" t="n">
-        <v>204.4218319897903</v>
+        <v>418.0531008953278</v>
       </c>
       <c r="G11" t="n">
-        <v>15.00204697330559</v>
+        <v>418.0531008953278</v>
       </c>
       <c r="H11" t="n">
-        <v>15.00204697330559</v>
+        <v>110.6522880102943</v>
       </c>
       <c r="I11" t="n">
-        <v>15.00204697330559</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J11" t="n">
-        <v>21.03371160678489</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K11" t="n">
-        <v>80.81213159058939</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L11" t="n">
-        <v>191.8743094079184</v>
+        <v>669.5878927711872</v>
       </c>
       <c r="M11" t="n">
-        <v>347.1218190644754</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N11" t="n">
-        <v>509.4952041123828</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O11" t="n">
-        <v>649.4845259985582</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P11" t="n">
-        <v>734.4611726020263</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q11" t="n">
-        <v>750.1023486652795</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R11" t="n">
-        <v>750.1023486652795</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S11" t="n">
-        <v>750.1023486652795</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T11" t="n">
-        <v>750.1023486652795</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U11" t="n">
-        <v>750.1023486652795</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="V11" t="n">
-        <v>750.1023486652795</v>
+        <v>1583.789775223591</v>
       </c>
       <c r="W11" t="n">
-        <v>750.1023486652795</v>
+        <v>1583.789775223591</v>
       </c>
       <c r="X11" t="n">
-        <v>750.1023486652795</v>
+        <v>1583.789775223591</v>
       </c>
       <c r="Y11" t="n">
-        <v>750.1023486652795</v>
+        <v>1583.789775223591</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>181.8429936158252</v>
+        <v>672.6691552812056</v>
       </c>
       <c r="C12" t="n">
-        <v>181.8429936158252</v>
+        <v>498.2161260000786</v>
       </c>
       <c r="D12" t="n">
-        <v>174.2395019787611</v>
+        <v>349.2817163388273</v>
       </c>
       <c r="E12" t="n">
-        <v>15.00204697330559</v>
+        <v>190.0442613333718</v>
       </c>
       <c r="F12" t="n">
-        <v>15.00204697330559</v>
+        <v>43.50970336025679</v>
       </c>
       <c r="G12" t="n">
-        <v>15.00204697330559</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H12" t="n">
-        <v>15.00204697330559</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I12" t="n">
-        <v>15.00204697330559</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J12" t="n">
-        <v>15.00204697330559</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K12" t="n">
-        <v>67.13418877024208</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L12" t="n">
-        <v>183.5548280772649</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M12" t="n">
-        <v>338.7690911140243</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N12" t="n">
-        <v>512.5000587546601</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O12" t="n">
-        <v>649.2101578476347</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P12" t="n">
-        <v>739.598998701706</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q12" t="n">
-        <v>750.1023486652795</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R12" t="n">
-        <v>750.1023486652795</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S12" t="n">
-        <v>750.1023486652795</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T12" t="n">
-        <v>750.1023486652795</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U12" t="n">
-        <v>560.6825636487947</v>
+        <v>1538.125457466751</v>
       </c>
       <c r="V12" t="n">
-        <v>371.26277863231</v>
+        <v>1302.973349235008</v>
       </c>
       <c r="W12" t="n">
-        <v>181.8429936158252</v>
+        <v>1048.735992506806</v>
       </c>
       <c r="X12" t="n">
-        <v>181.8429936158252</v>
+        <v>840.8844923012737</v>
       </c>
       <c r="Y12" t="n">
-        <v>181.8429936158252</v>
+        <v>840.8844923012737</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>67.74542702828987</v>
+        <v>358.391973440985</v>
       </c>
       <c r="C13" t="n">
-        <v>67.74542702828987</v>
+        <v>358.391973440985</v>
       </c>
       <c r="D13" t="n">
-        <v>67.74542702828987</v>
+        <v>358.391973440985</v>
       </c>
       <c r="E13" t="n">
-        <v>67.74542702828987</v>
+        <v>358.391973440985</v>
       </c>
       <c r="F13" t="n">
-        <v>15.00204697330559</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="G13" t="n">
-        <v>15.00204697330559</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H13" t="n">
-        <v>15.00204697330559</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I13" t="n">
-        <v>15.00204697330559</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J13" t="n">
-        <v>15.00204697330559</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K13" t="n">
-        <v>15.00204697330559</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L13" t="n">
-        <v>27.03967056230175</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M13" t="n">
-        <v>42.98993985170716</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N13" t="n">
-        <v>66.41847329396334</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O13" t="n">
-        <v>67.74542702828987</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P13" t="n">
-        <v>67.74542702828987</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.74542702828987</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R13" t="n">
-        <v>67.74542702828987</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S13" t="n">
-        <v>67.74542702828987</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T13" t="n">
-        <v>67.74542702828987</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U13" t="n">
-        <v>67.74542702828987</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V13" t="n">
-        <v>67.74542702828987</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W13" t="n">
-        <v>67.74542702828987</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X13" t="n">
-        <v>67.74542702828987</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y13" t="n">
-        <v>67.74542702828987</v>
+        <v>358.391973440985</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>103.9826713767712</v>
+        <v>1077.33134123588</v>
       </c>
       <c r="C14" t="n">
-        <v>103.9826713767712</v>
+        <v>708.3688242954688</v>
       </c>
       <c r="D14" t="n">
-        <v>103.9826713767712</v>
+        <v>708.3688242954688</v>
       </c>
       <c r="E14" t="n">
-        <v>103.9826713767712</v>
+        <v>322.5805716972246</v>
       </c>
       <c r="F14" t="n">
-        <v>103.9826713767712</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G14" t="n">
-        <v>103.9826713767712</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H14" t="n">
-        <v>103.9826713767712</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I14" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J14" t="n">
-        <v>21.03371160678512</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K14" t="n">
-        <v>80.81213159058962</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L14" t="n">
-        <v>191.8743094079187</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M14" t="n">
-        <v>347.1218190644759</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N14" t="n">
-        <v>509.4952041123835</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O14" t="n">
-        <v>649.4845259985591</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P14" t="n">
-        <v>734.461172602027</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q14" t="n">
-        <v>750.1023486652803</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R14" t="n">
-        <v>672.2420264262259</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S14" t="n">
-        <v>672.2420264262259</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T14" t="n">
-        <v>482.822241409741</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U14" t="n">
-        <v>293.4024563932561</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V14" t="n">
-        <v>293.4024563932561</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="W14" t="n">
-        <v>293.4024563932561</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="X14" t="n">
-        <v>293.4024563932561</v>
+        <v>1463.931181300002</v>
       </c>
       <c r="Y14" t="n">
-        <v>103.9826713767712</v>
+        <v>1463.931181300002</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>189.4550762544326</v>
+        <v>904.8600091750928</v>
       </c>
       <c r="C15" t="n">
-        <v>15.0020469733056</v>
+        <v>730.4069798939659</v>
       </c>
       <c r="D15" t="n">
-        <v>15.0020469733056</v>
+        <v>581.4725702327146</v>
       </c>
       <c r="E15" t="n">
-        <v>15.0020469733056</v>
+        <v>422.235115227259</v>
       </c>
       <c r="F15" t="n">
-        <v>15.0020469733056</v>
+        <v>275.700557254144</v>
       </c>
       <c r="G15" t="n">
-        <v>15.0020469733056</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H15" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I15" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J15" t="n">
-        <v>15.0020469733056</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K15" t="n">
-        <v>67.1341887702422</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L15" t="n">
-        <v>183.5548280772651</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M15" t="n">
-        <v>338.7690911140247</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N15" t="n">
-        <v>512.5000587546606</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O15" t="n">
-        <v>649.2101578476354</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P15" t="n">
-        <v>739.5989987017068</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q15" t="n">
-        <v>750.1023486652804</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R15" t="n">
-        <v>750.1023486652804</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S15" t="n">
-        <v>750.1023486652804</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T15" t="n">
-        <v>750.1023486652804</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="U15" t="n">
-        <v>568.2946462874024</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="V15" t="n">
-        <v>568.2946462874024</v>
+        <v>1535.073001688316</v>
       </c>
       <c r="W15" t="n">
-        <v>568.2946462874024</v>
+        <v>1280.835644960115</v>
       </c>
       <c r="X15" t="n">
-        <v>378.8748612709176</v>
+        <v>1280.835644960115</v>
       </c>
       <c r="Y15" t="n">
-        <v>189.4550762544326</v>
+        <v>1073.075346195161</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.0020469733056</v>
+        <v>191.2822901204862</v>
       </c>
       <c r="C16" t="n">
-        <v>15.0020469733056</v>
+        <v>191.2822901204862</v>
       </c>
       <c r="D16" t="n">
-        <v>15.0020469733056</v>
+        <v>191.2822901204862</v>
       </c>
       <c r="E16" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F16" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G16" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H16" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I16" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J16" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K16" t="n">
-        <v>15.0020469733056</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L16" t="n">
-        <v>27.03967056230183</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M16" t="n">
-        <v>42.98993985170729</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N16" t="n">
-        <v>66.41847329396353</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O16" t="n">
-        <v>67.74542702829011</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P16" t="n">
-        <v>67.74542702829011</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.74542702829011</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R16" t="n">
-        <v>67.74542702829011</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S16" t="n">
-        <v>67.74542702829011</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T16" t="n">
-        <v>67.74542702829011</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U16" t="n">
-        <v>67.74542702829011</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="V16" t="n">
-        <v>15.0020469733056</v>
+        <v>191.2822901204862</v>
       </c>
       <c r="W16" t="n">
-        <v>15.0020469733056</v>
+        <v>191.2822901204862</v>
       </c>
       <c r="X16" t="n">
-        <v>15.0020469733056</v>
+        <v>191.2822901204862</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.0020469733056</v>
+        <v>191.2822901204862</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2005.586939522201</v>
+        <v>849.5505500419047</v>
       </c>
       <c r="C17" t="n">
-        <v>1636.624422581789</v>
+        <v>480.588033101493</v>
       </c>
       <c r="D17" t="n">
-        <v>1278.358723975039</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="E17" t="n">
-        <v>892.5704713767946</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="G17" t="n">
-        <v>66.5121164321834</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H17" t="n">
-        <v>66.5121164321834</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>669.5878927711867</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.60582160917</v>
+        <v>2160.45501525416</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.60582160917</v>
+        <v>2160.45501525416</v>
       </c>
       <c r="U17" t="n">
-        <v>3079.557814111698</v>
+        <v>1906.847850916669</v>
       </c>
       <c r="V17" t="n">
-        <v>2748.494926768127</v>
+        <v>1575.784963573099</v>
       </c>
       <c r="W17" t="n">
-        <v>2395.726271498012</v>
+        <v>1223.016308302984</v>
       </c>
       <c r="X17" t="n">
-        <v>2395.726271498012</v>
+        <v>849.5505500419047</v>
       </c>
       <c r="Y17" t="n">
-        <v>2005.586939522201</v>
+        <v>849.5505500419047</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>525.9940904859268</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>351.5410612047998</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>202.6066515435486</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>1592.160173071419</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>1364.058583204683</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1364.058583204683</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1109.821226476482</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>901.9697262709487</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>694.2094275059949</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>212.7293032143256</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C19" t="n">
-        <v>212.7293032143256</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D19" t="n">
-        <v>212.7293032143256</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E19" t="n">
-        <v>212.7293032143256</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F19" t="n">
-        <v>212.7293032143256</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G19" t="n">
-        <v>212.7293032143256</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H19" t="n">
-        <v>66.5121164321834</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962286</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372932</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596505</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588483</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886958</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068855</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596442</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181849</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181849</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181849</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T19" t="n">
-        <v>920.8870058181849</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="U19" t="n">
-        <v>920.8870058181849</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="V19" t="n">
-        <v>730.1360241493036</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="W19" t="n">
-        <v>440.718854112343</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X19" t="n">
-        <v>212.7293032143256</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y19" t="n">
-        <v>212.7293032143256</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1285.591601078695</v>
+        <v>1256.740097465976</v>
       </c>
       <c r="C20" t="n">
-        <v>916.6290841382836</v>
+        <v>1256.740097465976</v>
       </c>
       <c r="D20" t="n">
-        <v>558.3633855315331</v>
+        <v>1256.740097465976</v>
       </c>
       <c r="E20" t="n">
-        <v>172.5751329332889</v>
+        <v>1256.740097465976</v>
       </c>
       <c r="F20" t="n">
-        <v>66.51211643218343</v>
+        <v>845.7541926763688</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218343</v>
+        <v>429.723147379776</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>122.3223344947426</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>152.5078184301899</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>366.8168396232715</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>669.5878927711863</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993394</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U20" t="n">
-        <v>3119.628073993394</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="V20" t="n">
-        <v>2788.565186649823</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="W20" t="n">
-        <v>2435.796531379709</v>
+        <v>1429.949352035179</v>
       </c>
       <c r="X20" t="n">
-        <v>2062.330773118629</v>
+        <v>1429.949352035179</v>
       </c>
       <c r="Y20" t="n">
-        <v>1672.191441142817</v>
+        <v>1256.740097465976</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>385.4712312201469</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>211.0182019390199</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>211.0182019390199</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>51.78074693356436</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927781</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064554</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>504.1959674104394</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>824.1028628789486</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>1672.753048689046</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>1627.262386835204</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>1432.55206530918</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>1204.450475442444</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>969.2983672107016</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>969.2983672107016</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>761.4468670051688</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>553.6865682402149</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>675.2351809199101</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C22" t="n">
-        <v>675.2351809199101</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D22" t="n">
-        <v>675.2351809199101</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E22" t="n">
-        <v>527.322087337517</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F22" t="n">
-        <v>380.4321398396067</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G22" t="n">
-        <v>212.7293032143257</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962289</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372933</v>
+        <v>92.71685897981519</v>
       </c>
       <c r="L22" t="n">
-        <v>332.3555681596505</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588484</v>
+        <v>287.1411594927331</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886959</v>
+        <v>393.9588065377459</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068856</v>
+        <v>472.3091036033657</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596443</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.887005818185</v>
+        <v>520.289347040599</v>
       </c>
       <c r="R22" t="n">
-        <v>920.887005818185</v>
+        <v>520.289347040599</v>
       </c>
       <c r="S22" t="n">
-        <v>920.887005818185</v>
+        <v>520.289347040599</v>
       </c>
       <c r="T22" t="n">
-        <v>920.887005818185</v>
+        <v>520.289347040599</v>
       </c>
       <c r="U22" t="n">
-        <v>920.887005818185</v>
+        <v>231.1630260146225</v>
       </c>
       <c r="V22" t="n">
-        <v>920.887005818185</v>
+        <v>231.1630260146225</v>
       </c>
       <c r="W22" t="n">
-        <v>675.2351809199101</v>
+        <v>231.1630260146225</v>
       </c>
       <c r="X22" t="n">
-        <v>675.2351809199101</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y22" t="n">
-        <v>675.2351809199101</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1238.038871968308</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C23" t="n">
-        <v>869.0763550278959</v>
+        <v>942.9472709150261</v>
       </c>
       <c r="D23" t="n">
-        <v>510.8106564211454</v>
+        <v>942.9472709150261</v>
       </c>
       <c r="E23" t="n">
-        <v>125.0224038229012</v>
+        <v>557.1590183167818</v>
       </c>
       <c r="F23" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G23" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U23" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V23" t="n">
-        <v>2741.012457539435</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W23" t="n">
-        <v>2388.243802269321</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X23" t="n">
-        <v>2014.778044008241</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y23" t="n">
-        <v>1624.638712032429</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D24" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6074,7 +6074,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2471.230932223169</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="C25" t="n">
-        <v>2471.230932223169</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="D25" t="n">
-        <v>2471.230932223169</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="E25" t="n">
-        <v>2471.230932223169</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="F25" t="n">
-        <v>2471.230932223169</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="G25" t="n">
-        <v>2471.230932223169</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="H25" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K25" t="n">
-        <v>2581.364540028278</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L25" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>2904.506865249833</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N25" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O25" t="n">
-        <v>3213.73405149787</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P25" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S25" t="n">
-        <v>3236.784902733886</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T25" t="n">
-        <v>3015.018287303412</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U25" t="n">
-        <v>2725.915420429055</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V25" t="n">
-        <v>2471.230932223169</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W25" t="n">
-        <v>2471.230932223169</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X25" t="n">
-        <v>2471.230932223169</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="Y25" t="n">
-        <v>2471.230932223169</v>
+        <v>87.68248070098099</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>921.7704558796252</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C26" t="n">
-        <v>552.8079389392135</v>
+        <v>869.0763550278978</v>
       </c>
       <c r="D26" t="n">
-        <v>519.4949199823222</v>
+        <v>510.8106564211473</v>
       </c>
       <c r="E26" t="n">
-        <v>519.4949199823222</v>
+        <v>125.022403822903</v>
       </c>
       <c r="F26" t="n">
-        <v>108.5090151927147</v>
+        <v>125.022403822903</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>125.022403822903</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450753</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.975386180638</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X26" t="n">
-        <v>1698.509627919559</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y26" t="n">
-        <v>1308.370295943747</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="27">
@@ -6296,16 +6296,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3325.60582160917</v>
+        <v>511.2489900899279</v>
       </c>
       <c r="C28" t="n">
-        <v>3325.60582160917</v>
+        <v>342.312807162021</v>
       </c>
       <c r="D28" t="n">
-        <v>3175.489182196834</v>
+        <v>192.1961677496853</v>
       </c>
       <c r="E28" t="n">
-        <v>3027.576088614441</v>
+        <v>192.1961677496853</v>
       </c>
       <c r="F28" t="n">
-        <v>2880.686141116531</v>
+        <v>192.1961677496853</v>
       </c>
       <c r="G28" t="n">
-        <v>2712.98330449125</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H28" t="n">
-        <v>2566.766117709108</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I28" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K28" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L28" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M28" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N28" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O28" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P28" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X28" t="n">
-        <v>3325.60582160917</v>
+        <v>692.8974549201677</v>
       </c>
       <c r="Y28" t="n">
-        <v>3325.60582160917</v>
+        <v>692.8974549201677</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1844.338003964587</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C29" t="n">
-        <v>1475.375487024175</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D29" t="n">
-        <v>1117.109788417425</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E29" t="n">
-        <v>731.3215358191806</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F29" t="n">
-        <v>320.335631029573</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
@@ -6484,31 +6484,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V29" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W29" t="n">
-        <v>2994.5429342656</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X29" t="n">
-        <v>2621.07717600452</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y29" t="n">
-        <v>2230.937844028709</v>
+        <v>1661.795585684488</v>
       </c>
     </row>
     <row r="30">
@@ -6533,16 +6533,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>528.3452334219998</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C31" t="n">
-        <v>528.3452334219998</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D31" t="n">
-        <v>528.3452334219998</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E31" t="n">
-        <v>380.4321398396066</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K31" t="n">
         <v>176.6457242372933</v>
@@ -6630,43 +6630,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R31" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S31" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T31" t="n">
-        <v>920.8870058181849</v>
+        <v>749.810573281298</v>
       </c>
       <c r="U31" t="n">
-        <v>920.8870058181849</v>
+        <v>749.810573281298</v>
       </c>
       <c r="V31" t="n">
-        <v>817.7624034589603</v>
+        <v>749.810573281298</v>
       </c>
       <c r="W31" t="n">
-        <v>528.3452334219998</v>
+        <v>749.810573281298</v>
       </c>
       <c r="X31" t="n">
-        <v>528.3452334219998</v>
+        <v>749.810573281298</v>
       </c>
       <c r="Y31" t="n">
-        <v>528.3452334219998</v>
+        <v>529.0179941377679</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1590.514489367197</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C32" t="n">
-        <v>1221.551972426786</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D32" t="n">
-        <v>863.2862738200351</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E32" t="n">
-        <v>477.498021221791</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F32" t="n">
-        <v>66.51211643218342</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060171</v>
@@ -6727,25 +6727,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V32" t="n">
-        <v>3093.488074938325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W32" t="n">
-        <v>2740.71941966821</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X32" t="n">
-        <v>2367.25366140713</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y32" t="n">
-        <v>1977.114329431319</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C33" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D33" t="n">
-        <v>1378.70869461456</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E33" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F33" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G33" t="n">
-        <v>936.5735814686077</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>846.0716871064752</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I33" t="n">
-        <v>827.0643955080131</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>920.7416649986303</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K33" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>1525.704024291643</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M33" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V33" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y33" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>533.4780323548191</v>
+        <v>410.6772566376941</v>
       </c>
       <c r="C34" t="n">
-        <v>364.5418494269122</v>
+        <v>410.6772566376941</v>
       </c>
       <c r="D34" t="n">
-        <v>214.4252100145765</v>
+        <v>260.5606172253583</v>
       </c>
       <c r="E34" t="n">
-        <v>66.51211643218342</v>
+        <v>260.5606172253583</v>
       </c>
       <c r="F34" t="n">
-        <v>66.51211643218342</v>
+        <v>113.670669727448</v>
       </c>
       <c r="G34" t="n">
         <v>66.51211643218342</v>
@@ -6897,13 +6897,13 @@
         <v>920.8870058181849</v>
       </c>
       <c r="W34" t="n">
-        <v>920.8870058181849</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X34" t="n">
-        <v>920.8870058181849</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="Y34" t="n">
-        <v>715.1264971850588</v>
+        <v>410.6772566376941</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2089.358425227296</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C35" t="n">
-        <v>1720.395908286885</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D35" t="n">
-        <v>1362.130209680134</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E35" t="n">
-        <v>976.3419570818899</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F35" t="n">
-        <v>565.3560522922824</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G35" t="n">
-        <v>150.2836021372788</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
         <v>108.5090151927147</v>
@@ -6964,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>2866.09759726723</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V35" t="n">
-        <v>2866.09759726723</v>
+        <v>3192.291725247109</v>
       </c>
       <c r="W35" t="n">
-        <v>2866.09759726723</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X35" t="n">
-        <v>2866.09759726723</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y35" t="n">
-        <v>2475.958265291418</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H36" t="n">
         <v>85.51940803064548</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>234.2149530574645</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="C37" t="n">
-        <v>234.2149530574645</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D37" t="n">
         <v>234.2149530574645</v>
@@ -7122,25 +7122,25 @@
         <v>920.887005818185</v>
       </c>
       <c r="S37" t="n">
-        <v>729.2011216450114</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T37" t="n">
-        <v>507.4345062145375</v>
+        <v>734.9162402279468</v>
       </c>
       <c r="U37" t="n">
-        <v>234.2149530574645</v>
+        <v>734.9162402279468</v>
       </c>
       <c r="V37" t="n">
-        <v>234.2149530574645</v>
+        <v>734.9162402279468</v>
       </c>
       <c r="W37" t="n">
-        <v>234.2149530574645</v>
+        <v>734.9162402279468</v>
       </c>
       <c r="X37" t="n">
-        <v>234.2149530574645</v>
+        <v>734.9162402279468</v>
       </c>
       <c r="Y37" t="n">
-        <v>234.2149530574645</v>
+        <v>734.9162402279468</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2047.583838282732</v>
+        <v>2065.110222835252</v>
       </c>
       <c r="C38" t="n">
-        <v>1678.62132134232</v>
+        <v>1696.14770589484</v>
       </c>
       <c r="D38" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E38" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F38" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
         <v>108.5090151927147</v>
@@ -7201,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>2866.097597267229</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V38" t="n">
-        <v>2535.034709923658</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W38" t="n">
-        <v>2535.034709923658</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X38" t="n">
-        <v>2535.034709923658</v>
+        <v>2841.849394875186</v>
       </c>
       <c r="Y38" t="n">
-        <v>2434.183678346854</v>
+        <v>2451.710062899374</v>
       </c>
     </row>
     <row r="39">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>403.4802848832069</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="C40" t="n">
-        <v>403.4802848832069</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="D40" t="n">
-        <v>253.3636454708711</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="E40" t="n">
-        <v>105.450551888478</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="F40" t="n">
-        <v>105.450551888478</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="G40" t="n">
         <v>66.51211643218342</v>
@@ -7365,19 +7365,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U40" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V40" t="n">
-        <v>920.8870058181849</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W40" t="n">
-        <v>631.4698357812242</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X40" t="n">
-        <v>403.4802848832069</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="Y40" t="n">
-        <v>403.4802848832069</v>
+        <v>87.68248070098099</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1232.248790760447</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C41" t="n">
-        <v>863.2862738200351</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D41" t="n">
-        <v>863.2862738200351</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>477.498021221791</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>66.51211643218343</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
@@ -7423,16 +7423,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7441,22 +7441,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3066.285263675145</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V41" t="n">
-        <v>2735.222376331575</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W41" t="n">
-        <v>2382.45372106146</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="X41" t="n">
-        <v>2008.98796280038</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y41" t="n">
-        <v>1618.848630824569</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D42" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7496,7 +7496,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>532.4548862703364</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="C43" t="n">
-        <v>363.5187033424295</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="D43" t="n">
-        <v>213.4020639300938</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="E43" t="n">
-        <v>213.4020639300938</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218343</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K43" t="n">
         <v>176.6457242372933</v>
@@ -7578,43 +7578,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R43" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S43" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>532.4548862703364</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U43" t="n">
-        <v>532.4548862703364</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V43" t="n">
-        <v>532.4548862703364</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="W43" t="n">
-        <v>532.4548862703364</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="X43" t="n">
-        <v>532.4548862703364</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="Y43" t="n">
-        <v>532.4548862703364</v>
+        <v>120.6003534763939</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>921.7704558796265</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="C44" t="n">
-        <v>552.8079389392149</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D44" t="n">
-        <v>519.4949199823222</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E44" t="n">
-        <v>519.4949199823222</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>108.5090151927147</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
         <v>108.5090151927147</v>
@@ -7645,31 +7645,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
@@ -7678,16 +7678,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V44" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X44" t="n">
         <v>1698.50962791956</v>
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
@@ -7733,7 +7733,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.6824807009811</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="C46" t="n">
-        <v>87.6824807009811</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218343</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218343</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218343</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K46" t="n">
         <v>176.6457242372933</v>
@@ -7815,43 +7815,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U46" t="n">
-        <v>631.7841389438286</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V46" t="n">
-        <v>377.0996507379417</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W46" t="n">
-        <v>87.6824807009811</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X46" t="n">
-        <v>87.6824807009811</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.6824807009811</v>
+        <v>87.68248070098099</v>
       </c>
     </row>
   </sheetData>
@@ -22555,7 +22555,7 @@
         <v>262.0180923315808</v>
       </c>
       <c r="E2" t="n">
-        <v>325.226369412001</v>
+        <v>289.2654207831596</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22567,10 +22567,10 @@
         <v>320.6353766150897</v>
       </c>
       <c r="I2" t="n">
-        <v>46.89118423444745</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22612,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>288.1118133446278</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22649,7 +22649,7 @@
         <v>65.63472101605001</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>33.84730027516773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22670,7 +22670,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>14.3427387906227</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>84.56947841277972</v>
@@ -22682,19 +22682,19 @@
         <v>196.197498299121</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8766285924705</v>
+        <v>133.2116793033683</v>
       </c>
       <c r="V3" t="n">
-        <v>185.0286000907518</v>
+        <v>140.1356378603231</v>
       </c>
       <c r="W3" t="n">
         <v>159.0300338718174</v>
       </c>
       <c r="X3" t="n">
-        <v>113.1080359143753</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>113.0177464882022</v>
+        <v>138.4061472340858</v>
       </c>
     </row>
     <row r="4">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>270.6211815385569</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22798,10 +22798,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>301.2760442195641</v>
+        <v>314.639873306455</v>
       </c>
       <c r="H5" t="n">
-        <v>207.7600497819524</v>
+        <v>319.8727099068761</v>
       </c>
       <c r="I5" t="n">
         <v>136.685125759028</v>
@@ -22840,10 +22840,10 @@
         <v>214.717169359623</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1925302541847</v>
+        <v>139.079870129261</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>215.6395983452112</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>287.4891076180209</v>
+        <v>274.1252785311299</v>
       </c>
     </row>
     <row r="6">
@@ -22865,16 +22865,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>73.95966795028299</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>35.33240543971505</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>45.53242033047724</v>
+        <v>68.1528081931896</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>32.95655226846017</v>
       </c>
       <c r="G6" t="n">
         <v>24.20675900740713</v>
@@ -22907,7 +22907,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.256558775821418</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>82.095592888813</v>
@@ -22922,7 +22922,7 @@
         <v>225.8740072105222</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>120.6879270245016</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22971,7 +22971,7 @@
         <v>29.26310570632462</v>
       </c>
       <c r="L7" t="n">
-        <v>7.238823902544752</v>
+        <v>3.613446413741165</v>
       </c>
       <c r="M7" t="n">
         <v>4.341129883412066</v>
@@ -22980,7 +22980,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>13.4762806411652</v>
+        <v>17.10165812996878</v>
       </c>
       <c r="P7" t="n">
         <v>33.88793923037925</v>
@@ -23023,25 +23023,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>220.5977350999653</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>210.0078849496407</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>263.6837615775868</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>319.1522816513967</v>
       </c>
       <c r="G8" t="n">
-        <v>268.578016356852</v>
+        <v>413.3631736823259</v>
       </c>
       <c r="H8" t="n">
-        <v>318.4846998108122</v>
+        <v>319.6112440130098</v>
       </c>
       <c r="I8" t="n">
-        <v>131.4600546760548</v>
+        <v>135.7008549060286</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9757828529239987</v>
+        <v>12.8546160241732</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>93.74941120143015</v>
       </c>
       <c r="S8" t="n">
-        <v>162.3156188332455</v>
+        <v>164.8222587461053</v>
       </c>
       <c r="T8" t="n">
-        <v>214.1238810212347</v>
+        <v>214.605408886009</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1816877488572</v>
+        <v>251.1904878012118</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>336.2324859028388</v>
+        <v>251.484492183794</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>267.9913301613785</v>
       </c>
     </row>
     <row r="9">
@@ -23099,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.85802697882505</v>
+        <v>48.28657515519231</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>54.46189049364071</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23111,19 +23111,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>26.82260389870885</v>
       </c>
       <c r="G9" t="n">
-        <v>136.2469034849667</v>
+        <v>136.3057590237977</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>102.2128853637449</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>63.79254932284294</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>28.79224034607559</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23144,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>7.512857904113389</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>81.24746790462186</v>
       </c>
       <c r="S9" t="n">
-        <v>151.3140530013673</v>
+        <v>152.4072688213206</v>
       </c>
       <c r="T9" t="n">
-        <v>187.8751439113233</v>
+        <v>195.9818351416614</v>
       </c>
       <c r="U9" t="n">
-        <v>81.19407977320594</v>
+        <v>225.8731085191713</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23165,7 +23165,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>101.6213724413678</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23193,49 +23193,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.07161528826</v>
+        <v>167.1209577949302</v>
       </c>
       <c r="H10" t="n">
-        <v>154.0531901378539</v>
+        <v>154.4918898789766</v>
       </c>
       <c r="I10" t="n">
-        <v>127.8026899798254</v>
+        <v>129.2865537258721</v>
       </c>
       <c r="J10" t="n">
-        <v>61.99638167634127</v>
+        <v>65.48489689792689</v>
       </c>
       <c r="K10" t="n">
-        <v>22.19986892380261</v>
+        <v>27.93257106239902</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>5.536197645364837</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>2.545949221032629</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>15.48294509055131</v>
       </c>
       <c r="P10" t="n">
-        <v>15.45088610797821</v>
+        <v>32.50285058383886</v>
       </c>
       <c r="Q10" t="n">
-        <v>74.52079753307214</v>
+        <v>78.65255961434066</v>
       </c>
       <c r="R10" t="n">
-        <v>135.9554396389582</v>
+        <v>138.1740581661489</v>
       </c>
       <c r="S10" t="n">
-        <v>207.9945896499623</v>
+        <v>208.8544949707518</v>
       </c>
       <c r="T10" t="n">
-        <v>224.0173974919776</v>
+        <v>224.2282245659322</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2688822253891</v>
+        <v>286.2715736348439</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23244,7 +23244,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>220.3666572776247</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23260,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>189.5105044445884</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>194.4047829059419</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>219.3504585753916</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>225.5722460637382</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H11" t="n">
-        <v>316.8938261062223</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>125.4713171199747</v>
+        <v>11.55334601960372</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>158.7758131900531</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T11" t="n">
-        <v>213.4438810562068</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1692605650303</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23336,31 +23336,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>139.9176088439453</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.1637893657753</v>
+        <v>135.3681320930932</v>
       </c>
       <c r="H12" t="n">
-        <v>100.8417573507397</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I12" t="n">
-        <v>58.90455890409149</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J12" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>72.4328956284632</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S12" t="n">
-        <v>149.7702446909496</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T12" t="n">
-        <v>195.4095977920013</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U12" t="n">
-        <v>38.33818124377106</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>45.2749999831054</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>64.16939599459974</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23427,22 +23427,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>93.2051017684968</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.4336708318196</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I13" t="n">
-        <v>125.7072197708667</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J13" t="n">
-        <v>57.06999962825418</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K13" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,22 +23457,22 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>18.10760906709386</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>68.68604055159726</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R13" t="n">
-        <v>132.8223696106904</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S13" t="n">
-        <v>206.7802557954962</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T13" t="n">
-        <v>223.7196734901001</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>58.30625348847687</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>130.4567843341712</v>
       </c>
       <c r="G14" t="n">
-        <v>413.097833230058</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H14" t="n">
-        <v>316.8938261062223</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I14" t="n">
-        <v>37.38049896054378</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>158.7758131900531</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T14" t="n">
-        <v>25.91829388988671</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U14" t="n">
-        <v>63.64367339871026</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>198.7123514897335</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,31 +23573,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>58.90455890409147</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J15" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.43289562846316</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>195.4095977920012</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U15" t="n">
-        <v>45.87414305599177</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>173.2019567312201</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>18.24739803715741</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>18.1571086109843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23661,25 +23661,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.0019352027142</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H16" t="n">
-        <v>153.4336708318196</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I16" t="n">
-        <v>125.7072197708667</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J16" t="n">
-        <v>57.06999962825414</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K16" t="n">
-        <v>14.10430989402848</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,25 +23694,25 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>18.10760906709382</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>68.68604055159722</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R16" t="n">
-        <v>132.8223696106904</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S16" t="n">
-        <v>206.7802557954962</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T16" t="n">
-        <v>223.7196734901001</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2650814934503</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>199.9216970693934</v>
+        <v>212.655714788633</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23740,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>122.8885451752627</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U17" t="n">
-        <v>7.407644536404177</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23822,16 +23822,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>20.43701279131687</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,28 +23934,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V19" t="n">
-        <v>63.29417147163551</v>
+        <v>1.354513060649737</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>301.873659405617</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>214.7607766325433</v>
       </c>
     </row>
     <row r="21">
@@ -24053,22 +24053,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>136.7417775018673</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>36.29946757904886</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>31.66886087721433</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24110,7 +24110,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24135,22 +24135,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>18.15430933923926</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,28 +24171,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>22.59469128425556</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>43.32769168729891</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>39.79376420727306</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24211,19 +24211,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>390.5277909978267</v>
+        <v>257.3203070362054</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24381,7 +24381,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>123.7963542882112</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24414,10 +24414,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>101.8363156449108</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24448,22 +24448,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>321.7031528533606</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>236.6825798705081</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>41.59859745470136</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>1.772586778758821</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>159.6364462020378</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>349.8910368433321</v>
       </c>
     </row>
     <row r="30">
@@ -24849,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>139.1154337346985</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>150.0442869881957</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>97.95568926599745</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>228.2019783486368</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>119.3388404967163</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>14.88174980530002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>253.250923312202</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>304.9590648598694</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25362,13 +25362,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>35.43789134183336</v>
       </c>
       <c r="U37" t="n">
-        <v>15.72448058011065</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>277.2566436803257</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>286.3954173950172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25554,16 +25554,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>127.4767571572966</v>
+        <v>145.0671476329186</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25605,16 +25605,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -25681,16 +25681,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>198.1857897438363</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>77.43728678753536</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>112.4784535852599</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25836,19 +25836,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>24.7701762552409</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>367.3519867358057</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>321.7031528533593</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>127.6568123921027</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>145.0671476329186</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>408111.9599248167</v>
+        <v>384794.8565140657</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>441595.0580613399</v>
+        <v>684371.1989135398</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>441595.0580613402</v>
+        <v>684371.1989135396</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>871958.5900271862</v>
+        <v>684371.1989135398</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>871958.5900271864</v>
+        <v>684371.1989135396</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>871958.5900271862</v>
+        <v>871958.5900271864</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>871958.5900271866</v>
+        <v>871958.5900271864</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>871958.5900271864</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>871958.5900271864</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
   </sheetData>
@@ -26319,25 +26319,25 @@
         <v>121688.5770084371</v>
       </c>
       <c r="D2" t="n">
-        <v>130903.8362022996</v>
+        <v>123424.7652969644</v>
       </c>
       <c r="E2" t="n">
-        <v>141643.6978687317</v>
+        <v>219515.2902175503</v>
       </c>
       <c r="F2" t="n">
-        <v>141643.6978687317</v>
+        <v>219515.2902175502</v>
       </c>
       <c r="G2" t="n">
+        <v>219515.2902175502</v>
+      </c>
+      <c r="H2" t="n">
+        <v>219515.2902175503</v>
+      </c>
+      <c r="I2" t="n">
         <v>279684.8307634371</v>
       </c>
-      <c r="H2" t="n">
-        <v>279684.830763437</v>
-      </c>
-      <c r="I2" t="n">
-        <v>279684.830763437</v>
-      </c>
       <c r="J2" t="n">
-        <v>279684.830763437</v>
+        <v>279684.8307634372</v>
       </c>
       <c r="K2" t="n">
         <v>279684.8307634371</v>
@@ -26346,10 +26346,10 @@
         <v>279684.830763437</v>
       </c>
       <c r="M2" t="n">
-        <v>279684.830763437</v>
+        <v>279684.8307634371</v>
       </c>
       <c r="N2" t="n">
-        <v>279684.8307634372</v>
+        <v>279684.8307634371</v>
       </c>
       <c r="O2" t="n">
         <v>279684.8307634371</v>
@@ -26371,40 +26371,40 @@
         <v>23151.37050443034</v>
       </c>
       <c r="D3" t="n">
-        <v>38987.52889819869</v>
+        <v>7344.261487660567</v>
       </c>
       <c r="E3" t="n">
-        <v>43838.3101621665</v>
+        <v>424816.4364596876</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>597335.6860090867</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>254625.8275892826</v>
       </c>
       <c r="J3" t="n">
         <v>24245.22799179788</v>
       </c>
       <c r="K3" t="n">
-        <v>5005.218442393769</v>
+        <v>5005.218442393711</v>
       </c>
       <c r="L3" t="n">
-        <v>8241.27481335367</v>
+        <v>1552.447126848705</v>
       </c>
       <c r="M3" t="n">
-        <v>10678.49868114521</v>
+        <v>105629.6878526798</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>154949.3715668551</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>81.37067654131212</v>
       </c>
       <c r="D4" t="n">
-        <v>105.5521581027501</v>
+        <v>85.87846253551017</v>
       </c>
       <c r="E4" t="n">
-        <v>137.800118072334</v>
+        <v>384.3219252469136</v>
       </c>
       <c r="F4" t="n">
-        <v>137.8001180723342</v>
+        <v>384.3219252469136</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061231</v>
+        <v>384.3219252469136</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061231</v>
+        <v>384.3219252469135</v>
       </c>
       <c r="I4" t="n">
         <v>584.6469890061231</v>
@@ -26475,25 +26475,25 @@
         <v>50823.37311172271</v>
       </c>
       <c r="D5" t="n">
-        <v>53538.12534878444</v>
+        <v>51334.76357084242</v>
       </c>
       <c r="E5" t="n">
-        <v>23358.20041161357</v>
+        <v>51571.48185587223</v>
       </c>
       <c r="F5" t="n">
-        <v>23358.20041161359</v>
+        <v>51571.48185587223</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139328</v>
+        <v>51571.48185587223</v>
       </c>
       <c r="H5" t="n">
+        <v>51571.48185587223</v>
+      </c>
+      <c r="I5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="I5" t="n">
-        <v>74306.34056139328</v>
-      </c>
       <c r="J5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-404988.3722132517</v>
+        <v>-418672.59338425</v>
       </c>
       <c r="C6" t="n">
-        <v>47632.46271574273</v>
+        <v>34264.57005786724</v>
       </c>
       <c r="D6" t="n">
-        <v>38272.62979721372</v>
+        <v>51394.09784090493</v>
       </c>
       <c r="E6" t="n">
-        <v>74309.38717687929</v>
+        <v>-264870.3301394194</v>
       </c>
       <c r="F6" t="n">
-        <v>118147.6973390456</v>
+        <v>159946.1063202682</v>
       </c>
       <c r="G6" t="n">
-        <v>-392541.842796049</v>
+        <v>159946.1063202681</v>
       </c>
       <c r="H6" t="n">
-        <v>204793.8432130376</v>
+        <v>159946.1063202682</v>
       </c>
       <c r="I6" t="n">
-        <v>204793.8432130377</v>
+        <v>-53905.97975441461</v>
       </c>
       <c r="J6" t="n">
-        <v>180548.6152212397</v>
+        <v>176474.6198430703</v>
       </c>
       <c r="K6" t="n">
-        <v>199788.6247706439</v>
+        <v>195714.6293924743</v>
       </c>
       <c r="L6" t="n">
-        <v>196552.5683996839</v>
+        <v>199167.4007080193</v>
       </c>
       <c r="M6" t="n">
-        <v>194115.3445318923</v>
+        <v>95090.15998218826</v>
       </c>
       <c r="N6" t="n">
-        <v>204793.8432130378</v>
+        <v>200719.8478348681</v>
       </c>
       <c r="O6" t="n">
-        <v>49844.4716461826</v>
+        <v>200719.847834868</v>
       </c>
       <c r="P6" t="n">
-        <v>204793.8432130376</v>
+        <v>200719.847834868</v>
       </c>
     </row>
   </sheetData>
@@ -26743,19 +26743,19 @@
         <v>476.1157511985022</v>
       </c>
       <c r="D3" t="n">
-        <v>509.8291662011503</v>
+        <v>482.4665034112926</v>
       </c>
       <c r="E3" t="n">
-        <v>548.4699409129046</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="F3" t="n">
-        <v>548.4699409129048</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>853.710664537684</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26795,31 +26795,31 @@
         <v>112.1126601249237</v>
       </c>
       <c r="D4" t="n">
-        <v>144.6751566710423</v>
+        <v>118.246608494675</v>
       </c>
       <c r="E4" t="n">
-        <v>187.5255871663199</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="F4" t="n">
-        <v>187.5255871663201</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022925</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="H4" t="n">
+        <v>542.1149567261632</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="I4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="K4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="L4" t="n">
         <v>831.4014554022928</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022929</v>
@@ -26828,10 +26828,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26965,22 +26965,22 @@
         <v>18.52443243433669</v>
       </c>
       <c r="D3" t="n">
-        <v>33.71341500264811</v>
+        <v>6.350752212790439</v>
       </c>
       <c r="E3" t="n">
-        <v>38.64077471175426</v>
+        <v>371.2441611263915</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>541.3067596803935</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>236.0660360556143</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,40 +27017,40 @@
         <v>19.44771083582151</v>
       </c>
       <c r="D4" t="n">
-        <v>32.56249654611858</v>
+        <v>6.133948369751329</v>
       </c>
       <c r="E4" t="n">
-        <v>42.85043049527758</v>
+        <v>423.8683482314882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>643.8758682359725</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>289.2864986761296</v>
       </c>
       <c r="J4" t="n">
         <v>92.66494928910231</v>
       </c>
       <c r="K4" t="n">
-        <v>19.44771083582174</v>
+        <v>19.44771083582151</v>
       </c>
       <c r="L4" t="n">
-        <v>32.56249654611847</v>
+        <v>6.133948369751216</v>
       </c>
       <c r="M4" t="n">
-        <v>42.85043049527781</v>
+        <v>423.8683482314883</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>643.8758682359727</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27263,16 +27263,16 @@
         <v>19.44771083582151</v>
       </c>
       <c r="L4" t="n">
-        <v>32.56249654611858</v>
+        <v>6.133948369751329</v>
       </c>
       <c r="M4" t="n">
-        <v>42.85043049527758</v>
+        <v>423.8683482314882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>643.8758682359725</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31132,7 +31132,7 @@
         <v>92.99032639149897</v>
       </c>
       <c r="K3" t="n">
-        <v>158.9352790843423</v>
+        <v>152.6909941347884</v>
       </c>
       <c r="L3" t="n">
         <v>213.7080965605662</v>
@@ -31141,13 +31141,13 @@
         <v>234.7989832111205</v>
       </c>
       <c r="N3" t="n">
-        <v>163.7876250036813</v>
+        <v>224.0066613724355</v>
       </c>
       <c r="O3" t="n">
         <v>234.1788327264121</v>
       </c>
       <c r="P3" t="n">
-        <v>187.9491588335306</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>125.6390352953988</v>
@@ -31369,19 +31369,19 @@
         <v>96.75480562798998</v>
       </c>
       <c r="K6" t="n">
-        <v>165.3693736969364</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>222.3595307837911</v>
       </c>
       <c r="M6" t="n">
-        <v>254.246694046942</v>
+        <v>227.490930221537</v>
       </c>
       <c r="N6" t="n">
         <v>243.454372208257</v>
       </c>
       <c r="O6" t="n">
-        <v>189.3752746148964</v>
+        <v>243.6589731628788</v>
       </c>
       <c r="P6" t="n">
         <v>195.5578073177395</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.049564487240804</v>
+        <v>1.939563832809215</v>
       </c>
       <c r="H8" t="n">
-        <v>20.99010230495489</v>
+        <v>19.86355810275738</v>
       </c>
       <c r="I8" t="n">
-        <v>79.01583489435116</v>
+        <v>74.77503466437734</v>
       </c>
       <c r="J8" t="n">
-        <v>173.9542238989543</v>
+        <v>164.6180558548913</v>
       </c>
       <c r="K8" t="n">
-        <v>260.7122886438576</v>
+        <v>246.7197928977054</v>
       </c>
       <c r="L8" t="n">
-        <v>323.4366478202534</v>
+        <v>306.0777195460405</v>
       </c>
       <c r="M8" t="n">
-        <v>359.8855902702221</v>
+        <v>340.5704378577614</v>
       </c>
       <c r="N8" t="n">
-        <v>365.708915369595</v>
+        <v>346.0812235977306</v>
       </c>
       <c r="O8" t="n">
-        <v>345.3285584995942</v>
+        <v>326.7946857352339</v>
       </c>
       <c r="P8" t="n">
-        <v>294.7299352208368</v>
+        <v>278.9117036127564</v>
       </c>
       <c r="Q8" t="n">
-        <v>221.3299070215255</v>
+        <v>209.4510738502763</v>
       </c>
       <c r="R8" t="n">
-        <v>128.7459552216403</v>
+        <v>121.836126612702</v>
       </c>
       <c r="S8" t="n">
-        <v>46.70445075299986</v>
+        <v>44.19781084014004</v>
       </c>
       <c r="T8" t="n">
-        <v>8.971968542896622</v>
+        <v>8.490440678122344</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1639651589792643</v>
+        <v>0.1551651066247372</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.096613678243984</v>
+        <v>1.037758139412969</v>
       </c>
       <c r="H9" t="n">
-        <v>10.59097947146163</v>
+        <v>10.02255887275157</v>
       </c>
       <c r="I9" t="n">
-        <v>37.75621655357576</v>
+        <v>35.72983067715705</v>
       </c>
       <c r="J9" t="n">
-        <v>103.6059440484809</v>
+        <v>98.04538632059111</v>
       </c>
       <c r="K9" t="n">
-        <v>177.0790604908279</v>
+        <v>167.57518166126</v>
       </c>
       <c r="L9" t="n">
-        <v>238.1046497432826</v>
+        <v>225.3255118054344</v>
       </c>
       <c r="M9" t="n">
-        <v>237.7793976178837</v>
+        <v>260.3806424166934</v>
       </c>
       <c r="N9" t="n">
-        <v>276.0168687543756</v>
+        <v>249.5883205780083</v>
       </c>
       <c r="O9" t="n">
-        <v>260.9122903671113</v>
+        <v>193.6150644683958</v>
       </c>
       <c r="P9" t="n">
-        <v>209.4051154534499</v>
+        <v>198.1662889200081</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>132.4689161819081</v>
       </c>
       <c r="R9" t="n">
-        <v>68.08624223342912</v>
+        <v>64.4320360593421</v>
       </c>
       <c r="S9" t="n">
-        <v>20.36911810247047</v>
+        <v>19.2759022825172</v>
       </c>
       <c r="T9" t="n">
-        <v>4.42012267678167</v>
+        <v>4.182893553160167</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07214563672657791</v>
+        <v>0.06827356180348484</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9193640701987955</v>
+        <v>0.8700215635285604</v>
       </c>
       <c r="H10" t="n">
-        <v>8.17398236958566</v>
+        <v>7.735282628463025</v>
       </c>
       <c r="I10" t="n">
-        <v>27.64778494743288</v>
+        <v>26.16392120138617</v>
       </c>
       <c r="J10" t="n">
-        <v>64.99903976305484</v>
+        <v>61.51052454146922</v>
       </c>
       <c r="K10" t="n">
-        <v>106.8133892467328</v>
+        <v>101.0806871081364</v>
       </c>
       <c r="L10" t="n">
-        <v>136.68436367301</v>
+        <v>129.3484786358734</v>
       </c>
       <c r="M10" t="n">
-        <v>144.114496931253</v>
+        <v>136.3798347265724</v>
       </c>
       <c r="N10" t="n">
-        <v>140.6877763059667</v>
+        <v>133.1370270806933</v>
       </c>
       <c r="O10" t="n">
-        <v>129.947932395008</v>
+        <v>122.9735933612915</v>
       </c>
       <c r="P10" t="n">
-        <v>111.1929053629525</v>
+        <v>105.2251534653088</v>
       </c>
       <c r="Q10" t="n">
-        <v>76.9842040963737</v>
+        <v>72.85244201510518</v>
       </c>
       <c r="R10" t="n">
-        <v>41.33795173821129</v>
+        <v>39.11933321102053</v>
       </c>
       <c r="S10" t="n">
-        <v>16.02200838700991</v>
+        <v>15.16210306622045</v>
       </c>
       <c r="T10" t="n">
-        <v>3.928191936303944</v>
+        <v>3.717364862349303</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05014713110175254</v>
+        <v>0.04745572164701244</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.204904285077002</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H11" t="n">
-        <v>22.58097600954485</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I11" t="n">
-        <v>85.00457245043118</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J11" t="n">
-        <v>187.1384950655543</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K11" t="n">
-        <v>280.4720934528639</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L11" t="n">
-        <v>347.9504329672893</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M11" t="n">
-        <v>387.1618995470274</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N11" t="n">
-        <v>393.4265838470024</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O11" t="n">
-        <v>371.501566862268</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P11" t="n">
-        <v>317.0679923244294</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q11" t="n">
-        <v>238.1048576151092</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R11" t="n">
-        <v>138.5038187974683</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S11" t="n">
-        <v>50.24425639619223</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T11" t="n">
-        <v>9.651968507924579</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.179727797435304</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H12" t="n">
-        <v>11.39368688575676</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I12" t="n">
-        <v>40.6178210959085</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J12" t="n">
-        <v>111.4584056340083</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K12" t="n">
-        <v>190.5001680621737</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L12" t="n">
-        <v>256.1509851405032</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M12" t="n">
-        <v>298.9161177975329</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N12" t="n">
-        <v>306.8275379829654</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O12" t="n">
-        <v>280.6872536292673</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P12" t="n">
-        <v>225.2762668628872</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.5912184936715</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R12" t="n">
-        <v>73.24660833550075</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S12" t="n">
-        <v>21.9129264128882</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T12" t="n">
-        <v>4.755130902820369</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9890441557445819</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H13" t="n">
-        <v>8.793501675620016</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I13" t="n">
-        <v>29.74325515639162</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J13" t="n">
-        <v>69.92542181114193</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K13" t="n">
-        <v>114.9089482765069</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L13" t="n">
-        <v>147.0438920276991</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M13" t="n">
-        <v>155.0371670682166</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N13" t="n">
-        <v>151.3507297604415</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O13" t="n">
-        <v>139.7968957592433</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6203949820538</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.81896107784858</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R13" t="n">
-        <v>44.4710217664791</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S13" t="n">
-        <v>17.23634224147603</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T13" t="n">
-        <v>4.225915938181394</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.204904285077002</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H14" t="n">
-        <v>22.58097600954486</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I14" t="n">
-        <v>85.00457245043123</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J14" t="n">
-        <v>187.1384950655544</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K14" t="n">
-        <v>280.472093452864</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L14" t="n">
-        <v>347.9504329672894</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M14" t="n">
-        <v>387.1618995470275</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N14" t="n">
-        <v>393.4265838470026</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O14" t="n">
-        <v>371.5015668622681</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P14" t="n">
-        <v>317.0679923244296</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q14" t="n">
-        <v>238.1048576151093</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R14" t="n">
-        <v>138.5038187974684</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S14" t="n">
-        <v>50.24425639619225</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T14" t="n">
-        <v>9.651968507924584</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.179727797435305</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H15" t="n">
-        <v>11.39368688575676</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I15" t="n">
-        <v>40.61782109590852</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J15" t="n">
-        <v>111.4584056340083</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K15" t="n">
-        <v>190.5001680621737</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L15" t="n">
-        <v>256.1509851405033</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M15" t="n">
-        <v>298.9161177975331</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N15" t="n">
-        <v>306.8275379829655</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O15" t="n">
-        <v>280.6872536292674</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P15" t="n">
-        <v>225.2762668628873</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q15" t="n">
-        <v>150.5912184936715</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R15" t="n">
-        <v>73.2466083355008</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S15" t="n">
-        <v>21.91292641288821</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T15" t="n">
-        <v>4.755130902820371</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9890441557445823</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H16" t="n">
-        <v>8.793501675620019</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I16" t="n">
-        <v>29.74325515639163</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J16" t="n">
-        <v>69.92542181114197</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K16" t="n">
-        <v>114.9089482765069</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L16" t="n">
-        <v>147.0438920276991</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M16" t="n">
-        <v>155.0371670682166</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N16" t="n">
-        <v>151.3507297604415</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O16" t="n">
-        <v>139.7968957592434</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P16" t="n">
-        <v>119.6203949820538</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.81896107784863</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R16" t="n">
-        <v>44.47102176647912</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S16" t="n">
-        <v>17.23634224147603</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T16" t="n">
-        <v>4.225915938181396</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>541.5957615840425</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>602.6296390934777</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>78.20676087699489</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2745602137206619</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>63.22291242095114</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>398.7070419616797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>465.2723121730377</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>477.5866858152842</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>436.8985133884504</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>350.6495746475631</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>34.10815721053858</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>7.401510384057842</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>46.29630948017474</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>108.8411121001568</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>228.8784296368735</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>241.3202129282505</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>235.5821576420138</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>69.22054011153088</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>6.577770693978874</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>21.09384010998329</v>
+        <v>14.84955516042944</v>
       </c>
       <c r="L3" t="n">
         <v>75.15371678069201</v>
@@ -34789,13 +34789,13 @@
         <v>92.6649492891022</v>
       </c>
       <c r="N3" t="n">
-        <v>32.44591292034803</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O3" t="n">
         <v>91.5825882819677</v>
       </c>
       <c r="P3" t="n">
-        <v>53.97475141920032</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>27.52793472257738</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>83.8051510039169</v>
       </c>
       <c r="M6" t="n">
-        <v>112.1126601249237</v>
+        <v>85.35689629951874</v>
       </c>
       <c r="N6" t="n">
         <v>112.1126601249237</v>
       </c>
       <c r="O6" t="n">
-        <v>46.77903017045198</v>
+        <v>101.0627287184343</v>
       </c>
       <c r="P6" t="n">
         <v>61.58339990340929</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>40.62243759887707</v>
+        <v>26.62994185272487</v>
       </c>
       <c r="L8" t="n">
-        <v>87.67023285026619</v>
+        <v>70.31130457605326</v>
       </c>
       <c r="M8" t="n">
-        <v>129.5393570429493</v>
+        <v>110.2242046304886</v>
       </c>
       <c r="N8" t="n">
-        <v>136.2958517730041</v>
+        <v>116.6681600011397</v>
       </c>
       <c r="O8" t="n">
-        <v>115.2303470779075</v>
+        <v>96.69647431354721</v>
       </c>
       <c r="P8" t="n">
-        <v>63.49693946556727</v>
+        <v>47.67870785748681</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>39.23762151646886</v>
+        <v>29.73374268690102</v>
       </c>
       <c r="L9" t="n">
-        <v>99.55026996340837</v>
+        <v>86.77113202556021</v>
       </c>
       <c r="M9" t="n">
-        <v>95.64536369586543</v>
+        <v>118.246608494675</v>
       </c>
       <c r="N9" t="n">
-        <v>144.6751566710423</v>
+        <v>118.246608494675</v>
       </c>
       <c r="O9" t="n">
-        <v>118.3160459226669</v>
+        <v>51.01882002395139</v>
       </c>
       <c r="P9" t="n">
-        <v>75.43070803911962</v>
+        <v>64.19188150567788</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35336,13 +35336,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1.799687391771755</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>5.188712983647946</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>13.00223184073349</v>
+        <v>5.451482615460151</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6.092590538868052</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K11" t="n">
-        <v>60.38224240788333</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L11" t="n">
-        <v>112.184017997302</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M11" t="n">
-        <v>156.8156663197546</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N11" t="n">
-        <v>164.0135202504115</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O11" t="n">
-        <v>141.4033554405812</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P11" t="n">
-        <v>85.8349965691599</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.79916774065975</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K12" t="n">
-        <v>52.65872908781469</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L12" t="n">
-        <v>117.596605360629</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M12" t="n">
-        <v>156.7820838755146</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N12" t="n">
-        <v>175.4858258996321</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O12" t="n">
-        <v>138.0910091848229</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P12" t="n">
-        <v>91.30185944855694</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.60944440764996</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L13" t="n">
-        <v>12.15921574646077</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M13" t="n">
-        <v>16.11138312061152</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N13" t="n">
-        <v>23.66518529520826</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O13" t="n">
-        <v>1.340357307400524</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>6.092590538868137</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K14" t="n">
-        <v>60.38224240788344</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L14" t="n">
-        <v>112.1840179973021</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M14" t="n">
-        <v>156.8156663197548</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N14" t="n">
-        <v>164.0135202504117</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O14" t="n">
-        <v>141.4033554405814</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P14" t="n">
-        <v>85.83499656916001</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.79916774065984</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K15" t="n">
-        <v>52.65872908781475</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L15" t="n">
-        <v>117.5966053606292</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M15" t="n">
-        <v>156.7820838755148</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N15" t="n">
-        <v>175.4858258996322</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O15" t="n">
-        <v>138.091009184823</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P15" t="n">
-        <v>91.30185944855702</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q15" t="n">
-        <v>10.60944440765002</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L16" t="n">
-        <v>12.15921574646083</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M16" t="n">
-        <v>16.11138312061158</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N16" t="n">
-        <v>23.66518529520832</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O16" t="n">
-        <v>1.340357307400581</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034289</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966704</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286437</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840382</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230783</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567573</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106933</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.0512801601422</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>110.2410322142394</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>216.4737587808905</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>305.8293466140553</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>372.283405866205</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>262.2932784109601</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>46.65087734093947</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>323.1382782510194</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>94.41818044892904</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034289</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966704</v>
+        <v>49.84612367850721</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286437</v>
+        <v>93.99375335563525</v>
       </c>
       <c r="M22" t="n">
-        <v>169.1237184840382</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230783</v>
+        <v>107.8966131767806</v>
       </c>
       <c r="O22" t="n">
-        <v>139.3114638567573</v>
+        <v>79.14171420769679</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106933</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.0512801601422</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
